--- a/群发邮件/获取通讯录/公司通讯录.xlsx
+++ b/群发邮件/获取通讯录/公司通讯录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="366">
   <si>
     <t>姓名</t>
   </si>
@@ -223,144 +223,162 @@
     <t>马旭</t>
   </si>
   <si>
+    <t>李强</t>
+  </si>
+  <si>
+    <t>刘金月</t>
+  </si>
+  <si>
+    <t>杨蕊</t>
+  </si>
+  <si>
+    <t>唐青</t>
+  </si>
+  <si>
+    <t>曲胜楠</t>
+  </si>
+  <si>
+    <t>金梦雅</t>
+  </si>
+  <si>
+    <t>王慧莹</t>
+  </si>
+  <si>
+    <t>高相</t>
+  </si>
+  <si>
+    <t>施伶俐</t>
+  </si>
+  <si>
+    <t>黄美玲</t>
+  </si>
+  <si>
+    <t>孙雪婷</t>
+  </si>
+  <si>
+    <t>詹杰</t>
+  </si>
+  <si>
+    <t>张凤丽</t>
+  </si>
+  <si>
+    <t>朱碧芸</t>
+  </si>
+  <si>
+    <t>石萌萌</t>
+  </si>
+  <si>
+    <t>张莉莉</t>
+  </si>
+  <si>
+    <t>伍秋潼</t>
+  </si>
+  <si>
+    <t>王天龙</t>
+  </si>
+  <si>
+    <t>冯心磊</t>
+  </si>
+  <si>
+    <t>胡婧</t>
+  </si>
+  <si>
+    <t>陈克君</t>
+  </si>
+  <si>
+    <t>熊凌璇</t>
+  </si>
+  <si>
+    <t>乔森</t>
+  </si>
+  <si>
+    <t>徐长丹</t>
+  </si>
+  <si>
+    <t>刁学明</t>
+  </si>
+  <si>
+    <t>任颖</t>
+  </si>
+  <si>
+    <t>史纬</t>
+  </si>
+  <si>
+    <t>于如意</t>
+  </si>
+  <si>
+    <t>刘洁莉</t>
+  </si>
+  <si>
+    <t>季丽</t>
+  </si>
+  <si>
+    <t>陈晓峰</t>
+  </si>
+  <si>
+    <t>陈祎玮</t>
+  </si>
+  <si>
+    <t>邵小丽</t>
+  </si>
+  <si>
+    <t>任智慧</t>
+  </si>
+  <si>
+    <t>谢露</t>
+  </si>
+  <si>
+    <t>聂爽</t>
+  </si>
+  <si>
+    <t>耿雪梅</t>
+  </si>
+  <si>
+    <t>田梦瑶</t>
+  </si>
+  <si>
+    <t>曹雪</t>
+  </si>
+  <si>
+    <t>刘志燕</t>
+  </si>
+  <si>
+    <t>朱翔</t>
+  </si>
+  <si>
+    <t>严依婷</t>
+  </si>
+  <si>
+    <t>唐明娟</t>
+  </si>
+  <si>
+    <t>鄢心怡</t>
+  </si>
+  <si>
+    <t>段理伟</t>
+  </si>
+  <si>
+    <t>余伟康</t>
+  </si>
+  <si>
+    <t>田家辉</t>
+  </si>
+  <si>
+    <t>张议文</t>
+  </si>
+  <si>
+    <t>王海英</t>
+  </si>
+  <si>
+    <t>刘江</t>
+  </si>
+  <si>
+    <t>赵彦扩</t>
+  </si>
+  <si>
     <t>李渊基</t>
   </si>
   <si>
-    <t>李强</t>
-  </si>
-  <si>
-    <t>朱碧芸</t>
-  </si>
-  <si>
-    <t>杨蕊</t>
-  </si>
-  <si>
-    <t>唐青</t>
-  </si>
-  <si>
-    <t>杨丽玄</t>
-  </si>
-  <si>
-    <t>曲胜楠</t>
-  </si>
-  <si>
-    <t>詹杰</t>
-  </si>
-  <si>
-    <t>张凤丽</t>
-  </si>
-  <si>
-    <t>张莉莉</t>
-  </si>
-  <si>
-    <t>黄美玲</t>
-  </si>
-  <si>
-    <t>段理伟</t>
-  </si>
-  <si>
-    <t>施伶俐</t>
-  </si>
-  <si>
-    <t>伍秋潼</t>
-  </si>
-  <si>
-    <t>王天龙</t>
-  </si>
-  <si>
-    <t>冯心磊</t>
-  </si>
-  <si>
-    <t>胡婧</t>
-  </si>
-  <si>
-    <t>陈克君</t>
-  </si>
-  <si>
-    <t>乔森</t>
-  </si>
-  <si>
-    <t>徐长丹</t>
-  </si>
-  <si>
-    <t>熊凌璇</t>
-  </si>
-  <si>
-    <t>田家辉</t>
-  </si>
-  <si>
-    <t>刁学明</t>
-  </si>
-  <si>
-    <t>任颖</t>
-  </si>
-  <si>
-    <t>于如意</t>
-  </si>
-  <si>
-    <t>王申芳</t>
-  </si>
-  <si>
-    <t>刘洁莉</t>
-  </si>
-  <si>
-    <t>季丽</t>
-  </si>
-  <si>
-    <t>陈晓峰</t>
-  </si>
-  <si>
-    <t>陈祎玮</t>
-  </si>
-  <si>
-    <t>邵小丽</t>
-  </si>
-  <si>
-    <t>任智慧</t>
-  </si>
-  <si>
-    <t>谢露</t>
-  </si>
-  <si>
-    <t>聂爽</t>
-  </si>
-  <si>
-    <t>耿雪梅</t>
-  </si>
-  <si>
-    <t>刘志燕</t>
-  </si>
-  <si>
-    <t>朱翔</t>
-  </si>
-  <si>
-    <t>严依婷</t>
-  </si>
-  <si>
-    <t>唐明娟</t>
-  </si>
-  <si>
-    <t>鄢心怡</t>
-  </si>
-  <si>
-    <t>赵雷</t>
-  </si>
-  <si>
-    <t>余伟康</t>
-  </si>
-  <si>
-    <t>张议文</t>
-  </si>
-  <si>
-    <t>王海英</t>
-  </si>
-  <si>
-    <t>刘江</t>
-  </si>
-  <si>
-    <t>赵彦扩</t>
-  </si>
-  <si>
     <t>戴荣军</t>
   </si>
   <si>
@@ -481,9 +499,6 @@
     <t>王晶华</t>
   </si>
   <si>
-    <t>王兰英</t>
-  </si>
-  <si>
     <t>王希瑞</t>
   </si>
   <si>
@@ -757,144 +772,156 @@
     <t>max@qidianbx.com</t>
   </si>
   <si>
+    <t>liq@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer02@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer19@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer22@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer15@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer16@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer07@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer17@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer05@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer11@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer06@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer09@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer20@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer03@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer24@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer14@qidianbx.com</t>
+  </si>
+  <si>
+    <t>support05@qidianbx.com</t>
+  </si>
+  <si>
+    <t>support06@qidianbx.com</t>
+  </si>
+  <si>
+    <t>fengxl@qidianbx.com</t>
+  </si>
+  <si>
+    <t>support03@qidianbx.com</t>
+  </si>
+  <si>
+    <t>chenkj@qidianbx.com</t>
+  </si>
+  <si>
+    <t>support01@qidianbx.com</t>
+  </si>
+  <si>
+    <t>support02@qidianbx.com</t>
+  </si>
+  <si>
+    <t>support04@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer18@qidianbx.com</t>
+  </si>
+  <si>
+    <t>reny@qidianbx.com</t>
+  </si>
+  <si>
+    <t>support08qidianbx.com</t>
+  </si>
+  <si>
+    <t>accounting@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer13@qidianbx.com</t>
+  </si>
+  <si>
+    <t>cashier@qidianbx.com</t>
+  </si>
+  <si>
+    <t>chenyw@qidianbx.com</t>
+  </si>
+  <si>
+    <t>shaoxiaoli@qidianbx.com</t>
+  </si>
+  <si>
+    <t>renzh@qidianbx.com</t>
+  </si>
+  <si>
+    <t>xiel@qidianbx.com</t>
+  </si>
+  <si>
+    <t>nies@qidianbx.com</t>
+  </si>
+  <si>
+    <t>gengxm@qidianbx.com</t>
+  </si>
+  <si>
+    <t>tianm@qidianbx.com</t>
+  </si>
+  <si>
+    <t>caox@qidianbx.com</t>
+  </si>
+  <si>
+    <t>lzy@qidianbx.com</t>
+  </si>
+  <si>
+    <t>support07@qidianbx.com</t>
+  </si>
+  <si>
+    <t>support11@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer23@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer21@qidianbx.com</t>
+  </si>
+  <si>
+    <t>customer01@qidianbx.com</t>
+  </si>
+  <si>
+    <t>support09@qidianbx.com</t>
+  </si>
+  <si>
+    <t>zhangyw@qidianbx.com</t>
+  </si>
+  <si>
+    <t>wanghy@qidianbx.com</t>
+  </si>
+  <si>
+    <t>liuj@qidianbx.com</t>
+  </si>
+  <si>
+    <t>zhaoyk@qidianbx.com</t>
+  </si>
+  <si>
     <t>liyj@qidianbx.com</t>
   </si>
   <si>
-    <t>liq@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer03@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer02@Qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer07@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer17@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer15@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer09@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer20@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer14@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer11@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer06@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer05@qidianbx.com</t>
-  </si>
-  <si>
-    <t>support05@qidianbx.com</t>
-  </si>
-  <si>
-    <t>support06@qidianbx.com</t>
-  </si>
-  <si>
-    <t>fengxl@qidianbx.com</t>
-  </si>
-  <si>
-    <t>support03@qidianbx.com</t>
-  </si>
-  <si>
-    <t>chenkj@qidianbx.com</t>
-  </si>
-  <si>
-    <t>support13@qidianbx.com</t>
-  </si>
-  <si>
-    <t>support04@qidianbx.com</t>
-  </si>
-  <si>
-    <t>support01@qidianbx.com</t>
-  </si>
-  <si>
-    <t>support09@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer18@qidianbx.com</t>
-  </si>
-  <si>
-    <t>reny@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer08@qidianbx.com</t>
-  </si>
-  <si>
-    <t>support08qidianbx.com</t>
-  </si>
-  <si>
-    <t>accounting@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer13@qidianbx.com</t>
-  </si>
-  <si>
-    <t>cashier@qidianbx.com</t>
-  </si>
-  <si>
-    <t>chenyw@qidianbx.com</t>
-  </si>
-  <si>
-    <t>shaoxiaoli@qidianbx.com</t>
-  </si>
-  <si>
-    <t>renzh@qidianbx.com</t>
-  </si>
-  <si>
-    <t>xiel@qidianbx.com</t>
-  </si>
-  <si>
-    <t>nies@qidianbx.com</t>
-  </si>
-  <si>
-    <t>gengxm@qidianbx.com</t>
-  </si>
-  <si>
-    <t>lzy@qidianbx.com</t>
-  </si>
-  <si>
-    <t>support07@qidianbx.com</t>
-  </si>
-  <si>
-    <t>support11@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer23@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer21@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer22@qidianbx.com</t>
-  </si>
-  <si>
-    <t>customer01@qidianbx.com</t>
-  </si>
-  <si>
-    <t>zhangyw@qidianbx.com</t>
-  </si>
-  <si>
-    <t>wanghy@qidianbx.com</t>
-  </si>
-  <si>
-    <t>liuj@qidianbx.com</t>
-  </si>
-  <si>
-    <t>zhaoyk@qidianbx.com</t>
-  </si>
-  <si>
     <t>dairj@yanshiaq.com</t>
   </si>
   <si>
@@ -1013,9 +1040,6 @@
   </si>
   <si>
     <t>wangjh@yanshiaq-cd.com</t>
-  </si>
-  <si>
-    <t>wangly@yanshiaq-cd.com</t>
   </si>
   <si>
     <t>wangxr@yanshiaq-cd.com</t>
@@ -1445,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1464,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1472,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1480,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1488,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1496,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1504,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1512,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1520,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1528,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1536,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1544,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1552,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1560,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1568,7 +1592,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1576,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1584,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1592,7 +1616,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1600,7 +1624,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1608,7 +1632,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1616,7 +1640,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1624,7 +1648,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1632,7 +1656,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1640,7 +1664,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1648,7 +1672,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1656,7 +1680,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1664,7 +1688,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1672,7 +1696,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1680,7 +1704,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1688,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1696,7 +1720,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1704,7 +1728,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1712,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1720,7 +1744,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1728,7 +1752,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1736,7 +1760,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1744,7 +1768,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1752,7 +1776,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1760,7 +1784,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1768,7 +1792,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1776,7 +1800,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1784,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1792,7 +1816,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1800,7 +1824,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1808,7 +1832,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1816,7 +1840,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1824,7 +1848,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1832,7 +1856,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1840,7 +1864,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1848,7 +1872,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1856,7 +1880,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1864,7 +1888,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1872,7 +1896,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1880,7 +1904,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1888,7 +1912,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1896,7 +1920,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1904,7 +1928,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1912,7 +1936,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1920,7 +1944,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1928,7 +1952,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1936,7 +1960,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1944,7 +1968,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1952,7 +1976,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1960,7 +1984,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1968,7 +1992,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1976,7 +2000,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1984,7 +2008,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1992,7 +2016,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2000,7 +2024,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2008,7 +2032,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2016,7 +2040,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2024,7 +2048,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2032,7 +2056,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2040,7 +2064,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2048,7 +2072,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2056,7 +2080,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2064,7 +2088,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2072,7 +2096,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2080,7 +2104,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2088,7 +2112,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2096,7 +2120,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2104,7 +2128,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2112,7 +2136,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2120,7 +2144,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2128,7 +2152,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2136,7 +2160,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2144,7 +2168,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2152,7 +2176,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2160,7 +2184,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2168,7 +2192,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2176,7 +2200,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2184,7 +2208,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2192,7 +2216,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2200,7 +2224,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2208,7 +2232,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2216,7 +2240,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2224,7 +2248,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2232,7 +2256,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2240,7 +2264,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2248,7 +2272,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2256,7 +2280,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2264,7 +2288,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2272,7 +2296,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2280,7 +2304,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2288,7 +2312,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2296,7 +2320,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2304,7 +2328,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2312,7 +2336,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2320,7 +2344,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2328,7 +2352,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2336,7 +2360,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2344,7 +2368,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2352,7 +2376,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2360,7 +2384,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2368,7 +2392,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2376,7 +2400,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2384,7 +2408,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2392,7 +2416,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2400,7 +2424,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2408,7 +2432,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2416,7 +2440,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2424,7 +2448,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2432,7 +2456,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2440,7 +2464,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2448,7 +2472,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2456,7 +2480,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2464,7 +2488,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2472,7 +2496,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2480,7 +2504,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2488,7 +2512,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2496,7 +2520,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2504,7 +2528,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2512,7 +2536,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2520,7 +2544,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2528,7 +2552,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2536,7 +2560,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2544,7 +2568,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2552,7 +2576,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2560,7 +2584,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2568,7 +2592,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2576,7 +2600,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2584,7 +2608,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2592,7 +2616,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2600,7 +2624,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2608,7 +2632,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2616,7 +2640,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2624,7 +2648,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2632,7 +2656,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2640,7 +2664,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2648,7 +2672,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2656,7 +2680,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2664,7 +2688,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2672,7 +2696,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2680,7 +2704,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2688,7 +2712,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2696,7 +2720,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2704,7 +2728,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2712,7 +2736,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2720,7 +2744,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2728,7 +2752,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2736,7 +2760,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2744,7 +2768,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2752,7 +2776,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2760,7 +2784,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2768,7 +2792,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2776,7 +2800,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2784,7 +2808,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2792,7 +2816,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2800,7 +2824,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2808,7 +2832,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2816,7 +2840,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2824,7 +2848,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2832,7 +2856,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2840,7 +2864,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2848,7 +2872,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2856,7 +2880,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2864,7 +2888,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2872,7 +2896,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2880,7 +2904,47 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>357</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
